--- a/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
+++ b/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Cseti\Tanfolyam\webshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Anna\gyakorlat\webshop\github\webshop\Anna\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,9 +449,6 @@
     <t>A jobb oldali ablakban megjelennek a megrendelések, a felső fülön kiválaszthatóak az aktív megrendelések</t>
   </si>
   <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>A megrendelés eltűnik az 'Active' listából, a teljes listában a 'Fulfill order' és a 'Delete' ikonok inaktívvá válnak</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
   </si>
 </sst>
 </file>
@@ -731,6 +731,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,6 +749,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -754,12 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1100,24 +1100,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="16" t="s">
@@ -1140,10 +1140,10 @@
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="26"/>
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1153,10 +1153,10 @@
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
@@ -1166,8 +1166,8 @@
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="9"/>
       <c r="F7" s="19"/>
     </row>
@@ -1175,10 +1175,10 @@
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="9"/>
       <c r="F8" s="19"/>
     </row>
@@ -1186,25 +1186,25 @@
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>43563</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="13"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1244,7 +1244,7 @@
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1273,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -1287,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -1301,10 +1301,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -1315,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>

--- a/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
+++ b/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
@@ -440,9 +440,6 @@
     <t>Kattints az 'Admin' ikonra</t>
   </si>
   <si>
-    <t>bal oldalon megjelenik a 'Dashboard-ADMIN-DEMO' legördülő menü</t>
-  </si>
-  <si>
     <t>A menüből válaszd ki az 'Orders' menüpontot</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>2.3.3</t>
+  </si>
+  <si>
+    <t>bal oldalon megjelenik a 'Dashboard-ADMIN' legördülő menü</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="16" t="s">
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="16" t="s">
@@ -1154,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="16" t="s">
@@ -1248,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -1259,10 +1259,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -1273,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -1287,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -1301,10 +1301,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -1315,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>

--- a/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
+++ b/Anna/2_3_3_Megrendeles_teljesitese_Megrendeleskezeles_admin_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Anna\gyakorlat\webshop\github\webshop\Anna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEBSHOP TESZT\webshop\Anna\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20184" windowHeight="8544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>...</t>
   </si>
@@ -443,9 +443,6 @@
     <t>A menüből válaszd ki az 'Orders' menüpontot</t>
   </si>
   <si>
-    <t>A jobb oldali ablakban megjelennek a megrendelések, a felső fülön kiválaszthatóak az aktív megrendelések</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -471,12 +468,21 @@
   </si>
   <si>
     <t>bal oldalon megjelenik a 'Dashboard-ADMIN' legördülő menü</t>
+  </si>
+  <si>
+    <t>Az ablakban megjelennek a megrendelések, a felső fülön kiválaszthatóak az aktív megrendelések</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Bäck András</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -669,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -767,9 +773,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1084,22 +1093,22 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="1"/>
+    <col min="7" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1119,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1123,46 +1132,52 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="33">
+        <v>43563.732638888891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1186,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1197,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
@@ -1193,8 +1208,8 @@
       <c r="E9" s="13"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1221,7 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1237,10 +1252,12 @@
         <v>25</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1248,13 +1265,15 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -1262,69 +1281,75 @@
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -1332,7 +1357,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1342,7 +1367,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1352,7 +1377,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
